--- a/doc/svscan.fs.tsv.header.explanations.CN.xlsx
+++ b/doc/svscan.fs.tsv.header.explanations.CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wood/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wood/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E07A0-1B80-3945-9D15-44C9BCF4EF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F74085-2CD6-4348-BCF9-EA0C53CA38FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{8EC4C139-CEF3-D546-905B-F738862C23B0}"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{8EC4C139-CEF3-D546-905B-F738862C23B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C354C8-9E05-4B47-ABDD-358F40D59B3F}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -871,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
